--- a/employee.xlsx
+++ b/employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ragha\Downloads\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C32C2E7-94E3-4377-BC08-FF46AF1706B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12199C08-D0B9-4407-B358-7F4A01AE6DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0DA9E1ED-76E8-4C29-A3BC-BFF2868CD175}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -71,13 +71,55 @@
   </si>
   <si>
     <t>kumar</t>
+  </si>
+  <si>
+    <t>kumar@gmail.com</t>
+  </si>
+  <si>
+    <t>majnu</t>
+  </si>
+  <si>
+    <t>majnu@gmail.com</t>
+  </si>
+  <si>
+    <t>kujli</t>
+  </si>
+  <si>
+    <t>kujli@gmail.com</t>
+  </si>
+  <si>
+    <t>pawan</t>
+  </si>
+  <si>
+    <t>pawan@gmail.com</t>
+  </si>
+  <si>
+    <t>kumari</t>
+  </si>
+  <si>
+    <t>kumari@gmail.com</t>
+  </si>
+  <si>
+    <t>arnold</t>
+  </si>
+  <si>
+    <t>anold@gmail.com</t>
+  </si>
+  <si>
+    <t>num1</t>
+  </si>
+  <si>
+    <t>num2</t>
+  </si>
+  <si>
+    <t>num3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +250,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -510,7 +560,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -553,11 +603,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -591,6 +643,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -911,18 +964,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCC9740-7FA3-43C0-B9B8-B154D34F4B86}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -941,8 +994,17 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -961,8 +1023,17 @@
       <c r="F2">
         <v>9876543210</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -981,8 +1052,17 @@
       <c r="F3">
         <v>8765432109</v>
       </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>33</v>
+      </c>
+      <c r="I3">
+        <v>14.3</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1001,8 +1081,17 @@
       <c r="F4">
         <v>9988776655</v>
       </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>14.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1021,8 +1110,17 @@
       <c r="F5">
         <v>9123456780</v>
       </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>22</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1041,22 +1139,199 @@
       <c r="F6">
         <v>9090909090</v>
       </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
       <c r="D7">
         <v>20000</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F7">
         <v>8584839594</v>
       </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1">
+        <v>29999</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>8909388398</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>30000</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <v>8029374658</v>
+      </c>
+      <c r="G9">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>44</v>
+      </c>
+      <c r="I9">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>70000</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>90383464733</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>70000</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>9028372882</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>50000</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>9373827232</v>
+      </c>
+      <c r="G12">
+        <v>44</v>
+      </c>
+      <c r="H12">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>15.5</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{D932DC17-A53E-4919-8B5A-E6AD40BF8003}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{C52F41A4-2B06-47D5-80DD-6F63A1BF3723}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{1FFFD24E-1970-4DB0-BF54-6F572592D5B1}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{26881201-3CDD-49E8-B9B9-59E16FCAB830}"/>
+    <hyperlink ref="E11" r:id="rId5" xr:uid="{5A46C671-B472-40C8-B81C-E48DE2F84DA2}"/>
+    <hyperlink ref="E12" r:id="rId6" xr:uid="{A5766564-DF8C-4D16-B5C8-9B36E0BD6154}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>